--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PredictValenceArousal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DEDB1B-0B0D-4B69-BD3B-2EEEAC518CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399B1F6-DBC9-4D5F-B2DE-15C9DD4C7B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7074E7C-316D-47F2-8DDC-68EADABFBDED}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Women to Men</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Valence</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>Arousal</t>
   </si>
 </sst>
 </file>
@@ -414,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B507F889-7240-4BA8-9C96-D21B50752B37}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +445,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -440,14 +469,26 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -460,14 +501,26 @@
       <c r="D4">
         <v>0.91</v>
       </c>
+      <c r="E4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.91</v>
+      </c>
       <c r="I4">
         <v>0.12</v>
       </c>
       <c r="J4">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0.17</v>
+      </c>
+      <c r="L4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -480,14 +533,26 @@
       <c r="D5">
         <v>0.88</v>
       </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>0.86</v>
+      </c>
       <c r="I5">
         <v>0.13</v>
       </c>
       <c r="J5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0.13</v>
+      </c>
+      <c r="L5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -500,14 +565,26 @@
       <c r="D6">
         <v>0.84</v>
       </c>
+      <c r="E6">
+        <v>0.19</v>
+      </c>
+      <c r="F6">
+        <v>0.81</v>
+      </c>
       <c r="I6">
         <v>0.16</v>
       </c>
       <c r="J6">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0.17</v>
+      </c>
+      <c r="L6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -520,14 +597,26 @@
       <c r="D7">
         <v>0.84</v>
       </c>
+      <c r="E7">
+        <v>0.16</v>
+      </c>
+      <c r="F7">
+        <v>0.78</v>
+      </c>
       <c r="I7">
         <v>0.11</v>
       </c>
       <c r="J7">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0.13</v>
+      </c>
+      <c r="L7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -540,14 +629,26 @@
       <c r="D8">
         <v>0.9</v>
       </c>
+      <c r="E8">
+        <v>0.19</v>
+      </c>
+      <c r="F8">
+        <v>0.86</v>
+      </c>
       <c r="I8">
         <v>0.12</v>
       </c>
       <c r="J8">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0.17</v>
+      </c>
+      <c r="L8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -557,11 +658,254 @@
       <c r="D9">
         <v>0.9</v>
       </c>
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
       <c r="I9">
         <v>0.14000000000000001</v>
       </c>
       <c r="J9">
         <v>0.92</v>
+      </c>
+      <c r="K9">
+        <v>0.15</v>
+      </c>
+      <c r="L9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.09</v>
+      </c>
+      <c r="D14">
+        <v>0.96</v>
+      </c>
+      <c r="E14">
+        <v>0.08</v>
+      </c>
+      <c r="F14">
+        <v>0.96</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.96</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>0.09</v>
+      </c>
+      <c r="D15">
+        <v>0.96</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>0.96</v>
+      </c>
+      <c r="I15">
+        <v>0.12</v>
+      </c>
+      <c r="J15">
+        <v>0.96</v>
+      </c>
+      <c r="K15">
+        <v>0.12</v>
+      </c>
+      <c r="L15">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.92</v>
+      </c>
+      <c r="E16">
+        <v>0.19</v>
+      </c>
+      <c r="F16">
+        <v>0.89</v>
+      </c>
+      <c r="I16">
+        <v>0.16</v>
+      </c>
+      <c r="J16">
+        <v>0.92</v>
+      </c>
+      <c r="K16">
+        <v>0.17</v>
+      </c>
+      <c r="L16">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0.12</v>
+      </c>
+      <c r="D17">
+        <v>0.91</v>
+      </c>
+      <c r="E17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.91</v>
+      </c>
+      <c r="K17">
+        <v>0.15</v>
+      </c>
+      <c r="L17">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0.06</v>
+      </c>
+      <c r="D18">
+        <v>0.98</v>
+      </c>
+      <c r="E18">
+        <v>0.08</v>
+      </c>
+      <c r="F18">
+        <v>0.98</v>
+      </c>
+      <c r="I18">
+        <v>0.06</v>
+      </c>
+      <c r="J18">
+        <v>0.98</v>
+      </c>
+      <c r="K18">
+        <v>0.11</v>
+      </c>
+      <c r="L18">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>0.11</v>
+      </c>
+      <c r="D19">
+        <v>0.95</v>
+      </c>
+      <c r="E19">
+        <v>0.11</v>
+      </c>
+      <c r="F19">
+        <v>0.95</v>
+      </c>
+      <c r="I19">
+        <v>0.13</v>
+      </c>
+      <c r="J19">
+        <v>0.95</v>
+      </c>
+      <c r="K19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0.09</v>
+      </c>
+      <c r="D27">
+        <v>0.91</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PredictValenceArousal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399B1F6-DBC9-4D5F-B2DE-15C9DD4C7B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66666ED7-96C8-4E59-B677-4E377B46D263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7074E7C-316D-47F2-8DDC-68EADABFBDED}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,25 +870,85 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>0.12</v>
+      </c>
+      <c r="D22">
+        <v>0.91</v>
+      </c>
+      <c r="I22">
+        <v>0.15</v>
+      </c>
+      <c r="J22">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0.86</v>
+      </c>
+      <c r="I23">
+        <v>0.11</v>
+      </c>
+      <c r="J23">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
+      <c r="C24">
+        <v>0.12</v>
+      </c>
+      <c r="D24">
+        <v>0.83</v>
+      </c>
+      <c r="I24">
+        <v>0.16</v>
+      </c>
+      <c r="J24">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
+      <c r="C25">
+        <v>0.08</v>
+      </c>
+      <c r="D25">
+        <v>0.84</v>
+      </c>
+      <c r="I25">
+        <v>0.08</v>
+      </c>
+      <c r="J25">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.88</v>
+      </c>
+      <c r="I26">
+        <v>0.17</v>
+      </c>
+      <c r="J26">
+        <v>0.88</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PredictValenceArousal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66666ED7-96C8-4E59-B677-4E377B46D263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB64820-906B-4204-8015-3B91C02BF0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7074E7C-316D-47F2-8DDC-68EADABFBDED}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,11 +876,23 @@
       <c r="D22">
         <v>0.91</v>
       </c>
+      <c r="E22">
+        <v>0.12</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
       <c r="I22">
         <v>0.15</v>
       </c>
       <c r="J22">
         <v>0.91</v>
+      </c>
+      <c r="K22">
+        <v>0.18</v>
+      </c>
+      <c r="L22">
+        <v>0.89</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -893,10 +905,22 @@
       <c r="D23">
         <v>0.86</v>
       </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
       <c r="I23">
         <v>0.11</v>
       </c>
       <c r="J23">
+        <v>0.87</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
         <v>0.87</v>
       </c>
     </row>
@@ -910,10 +934,22 @@
       <c r="D24">
         <v>0.83</v>
       </c>
+      <c r="E24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.8</v>
+      </c>
       <c r="I24">
         <v>0.16</v>
       </c>
       <c r="J24">
+        <v>0.84</v>
+      </c>
+      <c r="K24">
+        <v>0.17</v>
+      </c>
+      <c r="L24">
         <v>0.84</v>
       </c>
     </row>
@@ -927,11 +963,23 @@
       <c r="D25">
         <v>0.84</v>
       </c>
+      <c r="E25">
+        <v>0.09</v>
+      </c>
+      <c r="F25">
+        <v>0.81</v>
+      </c>
       <c r="I25">
         <v>0.08</v>
       </c>
       <c r="J25">
         <v>0.84</v>
+      </c>
+      <c r="K25">
+        <v>0.11</v>
+      </c>
+      <c r="L25">
+        <v>0.78</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -944,11 +992,23 @@
       <c r="D26">
         <v>0.88</v>
       </c>
+      <c r="E26">
+        <v>0.16</v>
+      </c>
+      <c r="F26">
+        <v>0.86</v>
+      </c>
       <c r="I26">
         <v>0.17</v>
       </c>
       <c r="J26">
         <v>0.88</v>
+      </c>
+      <c r="K26">
+        <v>0.16</v>
+      </c>
+      <c r="L26">
+        <v>0.89</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -961,10 +1021,22 @@
       <c r="D27">
         <v>0.91</v>
       </c>
+      <c r="E27">
+        <v>0.08</v>
+      </c>
+      <c r="F27">
+        <v>0.91</v>
+      </c>
       <c r="I27">
         <v>0.1</v>
       </c>
       <c r="J27">
+        <v>0.91</v>
+      </c>
+      <c r="K27">
+        <v>0.11</v>
+      </c>
+      <c r="L27">
         <v>0.91</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PredictValenceArousal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB64820-906B-4204-8015-3B91C02BF0F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1203F6E-5415-43B3-A377-94A5118B9E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7074E7C-316D-47F2-8DDC-68EADABFBDED}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>Women to Men</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Men to Women</t>
   </si>
   <si>
-    <t>Dependent</t>
-  </si>
-  <si>
     <t>Faces</t>
   </si>
   <si>
@@ -78,6 +75,21 @@
   </si>
   <si>
     <t>Arousal</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>RF Regression</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>#Images</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -113,8 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B507F889-7240-4BA8-9C96-D21B50752B37}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,23 +461,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -487,13 +506,16 @@
       <c r="L3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>221</v>
       </c>
       <c r="C4">
         <v>0.14000000000000001</v>
@@ -519,13 +541,16 @@
       <c r="L4">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>372</v>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0.13</v>
@@ -551,13 +576,16 @@
       <c r="L5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>185</v>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0.16</v>
@@ -583,13 +611,16 @@
       <c r="L6">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>328</v>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0.13</v>
@@ -615,13 +646,16 @@
       <c r="L7">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>250</v>
+      <c r="O7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.14000000000000001</v>
@@ -647,10 +681,16 @@
       <c r="L8">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="O8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.13</v>
@@ -676,18 +716,24 @@
       <c r="L9">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -716,9 +762,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0.09</v>
@@ -745,9 +791,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>0.14000000000000001</v>
@@ -774,9 +820,9 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>0.12</v>
@@ -802,10 +848,19 @@
       <c r="L17">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0.06</v>
@@ -831,10 +886,19 @@
       <c r="L18">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0.18</v>
+      </c>
+      <c r="R18">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>0.11</v>
@@ -860,13 +924,42 @@
       <c r="L19">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>0.1</v>
+      </c>
+      <c r="R19">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>0.17</v>
+      </c>
+      <c r="R20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>0.11</v>
+      </c>
+      <c r="R21">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -894,10 +987,19 @@
       <c r="L22">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>0.16</v>
+      </c>
+      <c r="R22">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0.1</v>
@@ -923,10 +1025,19 @@
       <c r="L23">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <v>0.11</v>
+      </c>
+      <c r="R23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>0.12</v>
@@ -953,9 +1064,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>0.08</v>
@@ -982,9 +1093,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>0.14000000000000001</v>
@@ -1011,9 +1122,9 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>0.09</v>
@@ -1041,6 +1152,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>